--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Sema3f-Plxna3.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.73434643125623</v>
+        <v>16.820675</v>
       </c>
       <c r="H2">
-        <v>4.73434643125623</v>
+        <v>50.462025</v>
       </c>
       <c r="I2">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046372</v>
       </c>
       <c r="J2">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046373</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.309145670140465</v>
+        <v>0.3930163333333334</v>
       </c>
       <c r="N2">
-        <v>0.309145670140465</v>
+        <v>1.179049</v>
       </c>
       <c r="O2">
-        <v>0.02492860775006926</v>
+        <v>0.03108558724574714</v>
       </c>
       <c r="P2">
-        <v>0.02492860775006926</v>
+        <v>0.03108558724574714</v>
       </c>
       <c r="Q2">
-        <v>1.463602700167826</v>
+        <v>6.610800012691667</v>
       </c>
       <c r="R2">
-        <v>1.463602700167826</v>
+        <v>59.497200114225</v>
       </c>
       <c r="S2">
-        <v>0.01541412517967678</v>
+        <v>0.02619763929792949</v>
       </c>
       <c r="T2">
-        <v>0.01541412517967678</v>
+        <v>0.0261976392979295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.73434643125623</v>
+        <v>16.820675</v>
       </c>
       <c r="H3">
-        <v>4.73434643125623</v>
+        <v>50.462025</v>
       </c>
       <c r="I3">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046372</v>
       </c>
       <c r="J3">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046373</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.38291131654775</v>
+        <v>6.505607333333333</v>
       </c>
       <c r="N3">
-        <v>6.38291131654775</v>
+        <v>19.516822</v>
       </c>
       <c r="O3">
-        <v>0.5146994051102178</v>
+        <v>0.5145603558806437</v>
       </c>
       <c r="P3">
-        <v>0.5146994051102178</v>
+        <v>0.5145603558806437</v>
       </c>
       <c r="Q3">
-        <v>30.21891341252284</v>
+        <v>109.4287066316166</v>
       </c>
       <c r="R3">
-        <v>30.21891341252284</v>
+        <v>984.8583596845498</v>
       </c>
       <c r="S3">
-        <v>0.3182544785419084</v>
+        <v>0.4336500544064706</v>
       </c>
       <c r="T3">
-        <v>0.3182544785419084</v>
+        <v>0.4336500544064706</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.73434643125623</v>
+        <v>16.820675</v>
       </c>
       <c r="H4">
-        <v>4.73434643125623</v>
+        <v>50.462025</v>
       </c>
       <c r="I4">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046372</v>
       </c>
       <c r="J4">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046373</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.716494975231655</v>
+        <v>0.7373189999999999</v>
       </c>
       <c r="N4">
-        <v>0.716494975231655</v>
+        <v>2.211957</v>
       </c>
       <c r="O4">
-        <v>0.05777607101639171</v>
+        <v>0.05831817193970827</v>
       </c>
       <c r="P4">
-        <v>0.05777607101639171</v>
+        <v>0.05831817193970829</v>
       </c>
       <c r="Q4">
-        <v>3.392135429001007</v>
+        <v>12.402203270325</v>
       </c>
       <c r="R4">
-        <v>3.392135429001007</v>
+        <v>111.619829432925</v>
       </c>
       <c r="S4">
-        <v>0.03572472237379894</v>
+        <v>0.04914812838866766</v>
       </c>
       <c r="T4">
-        <v>0.03572472237379894</v>
+        <v>0.04914812838866767</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.73434643125623</v>
+        <v>16.820675</v>
       </c>
       <c r="H5">
-        <v>4.73434643125623</v>
+        <v>50.462025</v>
       </c>
       <c r="I5">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046372</v>
       </c>
       <c r="J5">
-        <v>0.6183307681767327</v>
+        <v>0.8427583848046373</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.99268894330502</v>
+        <v>5.007097666666667</v>
       </c>
       <c r="N5">
-        <v>4.99268894330502</v>
+        <v>15.021293</v>
       </c>
       <c r="O5">
-        <v>0.4025959161233213</v>
+        <v>0.3960358849339008</v>
       </c>
       <c r="P5">
-        <v>0.4025959161233213</v>
+        <v>0.3960358849339009</v>
       </c>
       <c r="Q5">
-        <v>23.63711908110856</v>
+        <v>84.22276254425832</v>
       </c>
       <c r="R5">
-        <v>23.63711908110856</v>
+        <v>758.004862898325</v>
       </c>
       <c r="S5">
-        <v>0.2489374420813487</v>
+        <v>0.3337625627115693</v>
       </c>
       <c r="T5">
-        <v>0.2489374420813487</v>
+        <v>0.3337625627115695</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.44874389113174</v>
+        <v>1.464483</v>
       </c>
       <c r="H6">
-        <v>1.44874389113174</v>
+        <v>4.393449</v>
       </c>
       <c r="I6">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="J6">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.309145670140465</v>
+        <v>0.3930163333333334</v>
       </c>
       <c r="N6">
-        <v>0.309145670140465</v>
+        <v>1.179049</v>
       </c>
       <c r="O6">
-        <v>0.02492860775006926</v>
+        <v>0.03108558724574714</v>
       </c>
       <c r="P6">
-        <v>0.02492860775006926</v>
+        <v>0.03108558724574714</v>
       </c>
       <c r="Q6">
-        <v>0.4478729010858267</v>
+        <v>0.5755657388890001</v>
       </c>
       <c r="R6">
-        <v>0.4478729010858267</v>
+        <v>5.180091650001001</v>
       </c>
       <c r="S6">
-        <v>0.004716832622084066</v>
+        <v>0.00228088334100443</v>
       </c>
       <c r="T6">
-        <v>0.004716832622084066</v>
+        <v>0.00228088334100443</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.44874389113174</v>
+        <v>1.464483</v>
       </c>
       <c r="H7">
-        <v>1.44874389113174</v>
+        <v>4.393449</v>
       </c>
       <c r="I7">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="J7">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.38291131654775</v>
+        <v>6.505607333333333</v>
       </c>
       <c r="N7">
-        <v>6.38291131654775</v>
+        <v>19.516822</v>
       </c>
       <c r="O7">
-        <v>0.5146994051102178</v>
+        <v>0.5145603558806437</v>
       </c>
       <c r="P7">
-        <v>0.5146994051102178</v>
+        <v>0.5145603558806437</v>
       </c>
       <c r="Q7">
-        <v>9.247203777484206</v>
+        <v>9.527351344342001</v>
       </c>
       <c r="R7">
-        <v>9.247203777484206</v>
+        <v>85.74616209907799</v>
       </c>
       <c r="S7">
-        <v>0.09738814814414949</v>
+        <v>0.0377555081842644</v>
       </c>
       <c r="T7">
-        <v>0.09738814814414949</v>
+        <v>0.0377555081842644</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.44874389113174</v>
+        <v>1.464483</v>
       </c>
       <c r="H8">
-        <v>1.44874389113174</v>
+        <v>4.393449</v>
       </c>
       <c r="I8">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="J8">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.716494975231655</v>
+        <v>0.7373189999999999</v>
       </c>
       <c r="N8">
-        <v>0.716494975231655</v>
+        <v>2.211957</v>
       </c>
       <c r="O8">
-        <v>0.05777607101639171</v>
+        <v>0.05831817193970827</v>
       </c>
       <c r="P8">
-        <v>0.05777607101639171</v>
+        <v>0.05831817193970829</v>
       </c>
       <c r="Q8">
-        <v>1.038017718393448</v>
+        <v>1.079791141077</v>
       </c>
       <c r="R8">
-        <v>1.038017718393448</v>
+        <v>9.718120269693001</v>
       </c>
       <c r="S8">
-        <v>0.01093202072406972</v>
+        <v>0.00427905529992234</v>
       </c>
       <c r="T8">
-        <v>0.01093202072406972</v>
+        <v>0.004279055299922341</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.44874389113174</v>
+        <v>1.464483</v>
       </c>
       <c r="H9">
-        <v>1.44874389113174</v>
+        <v>4.393449</v>
       </c>
       <c r="I9">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="J9">
-        <v>0.1892136403835454</v>
+        <v>0.07337430439942808</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.99268894330502</v>
+        <v>5.007097666666667</v>
       </c>
       <c r="N9">
-        <v>4.99268894330502</v>
+        <v>15.021293</v>
       </c>
       <c r="O9">
-        <v>0.4025959161233213</v>
+        <v>0.3960358849339008</v>
       </c>
       <c r="P9">
-        <v>0.4025959161233213</v>
+        <v>0.3960358849339009</v>
       </c>
       <c r="Q9">
-        <v>7.23312760693413</v>
+        <v>7.332809412173001</v>
       </c>
       <c r="R9">
-        <v>7.23312760693413</v>
+        <v>65.99528470955701</v>
       </c>
       <c r="S9">
-        <v>0.07617663889324211</v>
+        <v>0.02905885757423691</v>
       </c>
       <c r="T9">
-        <v>0.07617663889324211</v>
+        <v>0.02905885757423691</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0788311426189789</v>
+        <v>0.1122456666666666</v>
       </c>
       <c r="H10">
-        <v>0.0788311426189789</v>
+        <v>0.336737</v>
       </c>
       <c r="I10">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="J10">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.309145670140465</v>
+        <v>0.3930163333333334</v>
       </c>
       <c r="N10">
-        <v>0.309145670140465</v>
+        <v>1.179049</v>
       </c>
       <c r="O10">
-        <v>0.02492860775006926</v>
+        <v>0.03108558724574714</v>
       </c>
       <c r="P10">
-        <v>0.02492860775006926</v>
+        <v>0.03108558724574714</v>
       </c>
       <c r="Q10">
-        <v>0.02437030641288281</v>
+        <v>0.04411438034588888</v>
       </c>
       <c r="R10">
-        <v>0.02437030641288281</v>
+        <v>0.3970294231129999</v>
       </c>
       <c r="S10">
-        <v>0.0002566591013204479</v>
+        <v>0.0001748188754665887</v>
       </c>
       <c r="T10">
-        <v>0.0002566591013204479</v>
+        <v>0.0001748188754665887</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0788311426189789</v>
+        <v>0.1122456666666666</v>
       </c>
       <c r="H11">
-        <v>0.0788311426189789</v>
+        <v>0.336737</v>
       </c>
       <c r="I11">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="J11">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.38291131654775</v>
+        <v>6.505607333333333</v>
       </c>
       <c r="N11">
-        <v>6.38291131654775</v>
+        <v>19.516822</v>
       </c>
       <c r="O11">
-        <v>0.5146994051102178</v>
+        <v>0.5145603558806437</v>
       </c>
       <c r="P11">
-        <v>0.5146994051102178</v>
+        <v>0.5145603558806437</v>
       </c>
       <c r="Q11">
-        <v>0.5031721923190701</v>
+        <v>0.7302262322015554</v>
       </c>
       <c r="R11">
-        <v>0.5031721923190701</v>
+        <v>6.572036089813999</v>
       </c>
       <c r="S11">
-        <v>0.005299224412778956</v>
+        <v>0.002893780389722206</v>
       </c>
       <c r="T11">
-        <v>0.005299224412778956</v>
+        <v>0.002893780389722206</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0788311426189789</v>
+        <v>0.1122456666666666</v>
       </c>
       <c r="H12">
-        <v>0.0788311426189789</v>
+        <v>0.336737</v>
       </c>
       <c r="I12">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="J12">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.716494975231655</v>
+        <v>0.7373189999999999</v>
       </c>
       <c r="N12">
-        <v>0.716494975231655</v>
+        <v>2.211957</v>
       </c>
       <c r="O12">
-        <v>0.05777607101639171</v>
+        <v>0.05831817193970827</v>
       </c>
       <c r="P12">
-        <v>0.05777607101639171</v>
+        <v>0.05831817193970829</v>
       </c>
       <c r="Q12">
-        <v>0.05648211757826835</v>
+        <v>0.08276086270099998</v>
       </c>
       <c r="R12">
-        <v>0.05648211757826835</v>
+        <v>0.7448477643089999</v>
       </c>
       <c r="S12">
-        <v>0.0005948488825996421</v>
+        <v>0.0003279692661801578</v>
       </c>
       <c r="T12">
-        <v>0.0005948488825996421</v>
+        <v>0.0003279692661801579</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0788311426189789</v>
+        <v>0.1122456666666666</v>
       </c>
       <c r="H13">
-        <v>0.0788311426189789</v>
+        <v>0.336737</v>
       </c>
       <c r="I13">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="J13">
-        <v>0.01029576556756303</v>
+        <v>0.005623791954919746</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.99268894330502</v>
+        <v>5.007097666666667</v>
       </c>
       <c r="N13">
-        <v>4.99268894330502</v>
+        <v>15.021293</v>
       </c>
       <c r="O13">
-        <v>0.4025959161233213</v>
+        <v>0.3960358849339008</v>
       </c>
       <c r="P13">
-        <v>0.4025959161233213</v>
+        <v>0.3960358849339009</v>
       </c>
       <c r="Q13">
-        <v>0.3935793741418771</v>
+        <v>0.562025015660111</v>
       </c>
       <c r="R13">
-        <v>0.3935793741418771</v>
+        <v>5.058225140941</v>
       </c>
       <c r="S13">
-        <v>0.004145033170863985</v>
+        <v>0.002227223423550793</v>
       </c>
       <c r="T13">
-        <v>0.004145033170863985</v>
+        <v>0.002227223423550794</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.39473525485249</v>
+        <v>1.561668</v>
       </c>
       <c r="H14">
-        <v>1.39473525485249</v>
+        <v>4.685003999999999</v>
       </c>
       <c r="I14">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="J14">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.309145670140465</v>
+        <v>0.3930163333333334</v>
       </c>
       <c r="N14">
-        <v>0.309145670140465</v>
+        <v>1.179049</v>
       </c>
       <c r="O14">
-        <v>0.02492860775006926</v>
+        <v>0.03108558724574714</v>
       </c>
       <c r="P14">
-        <v>0.02492860775006926</v>
+        <v>0.03108558724574714</v>
       </c>
       <c r="Q14">
-        <v>0.4311763650299053</v>
+        <v>0.6137610312439999</v>
       </c>
       <c r="R14">
-        <v>0.4311763650299053</v>
+        <v>5.523849281195999</v>
       </c>
       <c r="S14">
-        <v>0.004540990846987963</v>
+        <v>0.002432245731346629</v>
       </c>
       <c r="T14">
-        <v>0.004540990846987963</v>
+        <v>0.002432245731346629</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.39473525485249</v>
+        <v>1.561668</v>
       </c>
       <c r="H15">
-        <v>1.39473525485249</v>
+        <v>4.685003999999999</v>
       </c>
       <c r="I15">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="J15">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.38291131654775</v>
+        <v>6.505607333333333</v>
       </c>
       <c r="N15">
-        <v>6.38291131654775</v>
+        <v>19.516822</v>
       </c>
       <c r="O15">
-        <v>0.5146994051102178</v>
+        <v>0.5145603558806437</v>
       </c>
       <c r="P15">
-        <v>0.5146994051102178</v>
+        <v>0.5145603558806437</v>
       </c>
       <c r="Q15">
-        <v>8.902471441786069</v>
+        <v>10.159598793032</v>
       </c>
       <c r="R15">
-        <v>8.902471441786069</v>
+        <v>91.43638913728797</v>
       </c>
       <c r="S15">
-        <v>0.093757554011381</v>
+        <v>0.04026101290018648</v>
       </c>
       <c r="T15">
-        <v>0.093757554011381</v>
+        <v>0.04026101290018648</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.39473525485249</v>
+        <v>1.561668</v>
       </c>
       <c r="H16">
-        <v>1.39473525485249</v>
+        <v>4.685003999999999</v>
       </c>
       <c r="I16">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="J16">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.716494975231655</v>
+        <v>0.7373189999999999</v>
       </c>
       <c r="N16">
-        <v>0.716494975231655</v>
+        <v>2.211957</v>
       </c>
       <c r="O16">
-        <v>0.05777607101639171</v>
+        <v>0.05831817193970827</v>
       </c>
       <c r="P16">
-        <v>0.05777607101639171</v>
+        <v>0.05831817193970829</v>
       </c>
       <c r="Q16">
-        <v>0.9993208018802509</v>
+        <v>1.151447488092</v>
       </c>
       <c r="R16">
-        <v>0.9993208018802509</v>
+        <v>10.363027392828</v>
       </c>
       <c r="S16">
-        <v>0.01052447903592339</v>
+        <v>0.004563018984938111</v>
       </c>
       <c r="T16">
-        <v>0.01052447903592339</v>
+        <v>0.004563018984938111</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.39473525485249</v>
+        <v>1.561668</v>
       </c>
       <c r="H17">
-        <v>1.39473525485249</v>
+        <v>4.685003999999999</v>
       </c>
       <c r="I17">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="J17">
-        <v>0.1821598258721588</v>
+        <v>0.07824351884101489</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.99268894330502</v>
+        <v>5.007097666666667</v>
       </c>
       <c r="N17">
-        <v>4.99268894330502</v>
+        <v>15.021293</v>
       </c>
       <c r="O17">
-        <v>0.4025959161233213</v>
+        <v>0.3960358849339008</v>
       </c>
       <c r="P17">
-        <v>0.4025959161233213</v>
+        <v>0.3960358849339009</v>
       </c>
       <c r="Q17">
-        <v>6.963479285739736</v>
+        <v>7.819424198907999</v>
       </c>
       <c r="R17">
-        <v>6.963479285739736</v>
+        <v>70.37481779017199</v>
       </c>
       <c r="S17">
-        <v>0.07333680197786645</v>
+        <v>0.03098724122454367</v>
       </c>
       <c r="T17">
-        <v>0.07333680197786645</v>
+        <v>0.03098724122454368</v>
       </c>
     </row>
   </sheetData>
